--- a/biology/Zoologie/Incisivosaurus/Incisivosaurus.xlsx
+++ b/biology/Zoologie/Incisivosaurus/Incisivosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Incisivosaurus gauthieri
-Incisivosaurus (incisivosaure en français) est un genre éteint de dinosaures à plumes théropodes, un oviraptorosauien basal ayant vécu en Chine durant l'époque du Crétacé inférieur (entre 130-122 Ma). Une seule espèce est connue : Incisivosaurus gauthieri[1].
+Incisivosaurus (incisivosaure en français) est un genre éteint de dinosaures à plumes théropodes, un oviraptorosauien basal ayant vécu en Chine durant l'époque du Crétacé inférieur (entre 130-122 Ma). Une seule espèce est connue : Incisivosaurus gauthieri.
 Le crâne d'Incisivosaurus le classe parmi les théropodes, généralement carnivores, mais ses dents indiquent qu'il était herbivore ou omnivore.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette étrange créature appartient au clade des oviraptosauriens, ce qui signifie « lézards voleur d'œufs » On a surnommé ainsi le genre Oviraptor car le premier squelette de cette espèce fut découvert à côté d'un nid rempli d'œufs. Ces œufs étaient en réalité ceux d'Oviraptor, qui ne les volaient pas, mais les protégeait.
 L'incisivosaure (in-ci-zi-vo-zor) était couvert de plumes et avait un bec garni de dents pointues. Il possédait aussi une étrange caractéristique : deux grandes dents, des incisives, à l'avant du bec, semblables à celles d'un rongeur.
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incisivosaurus est le genre le plus basal du clade des oviraptorosauriens[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incisivosaurus est le genre le plus basal du clade des oviraptorosauriens.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Incisivosaurus apparaît dans "Prehistoric Park" où Nigel en rencontre un qui réapparaît séduisant une femelle de son espèce après avoir chassé un possible rival.
 </t>
